--- a/data/extracted_data/processed/fitted_model_results_round1.xlsx
+++ b/data/extracted_data/processed/fitted_model_results_round1.xlsx
@@ -12160,7 +12160,7 @@
         <v>480</v>
       </c>
       <c r="D236" t="s">
-        <v>516</v>
+        <v>710</v>
       </c>
       <c r="E236" t="n">
         <v>93.61772696419492</v>
